--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema6d-Trem2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema6d-Trem2.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.38860566666667</v>
+        <v>36.134107</v>
       </c>
       <c r="H2">
-        <v>121.165817</v>
+        <v>108.402321</v>
       </c>
       <c r="I2">
-        <v>0.3922794987653324</v>
+        <v>0.6652922211878534</v>
       </c>
       <c r="J2">
-        <v>0.4698483591077923</v>
+        <v>0.6960141222607766</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.04683200000000001</v>
+        <v>1.272165</v>
       </c>
       <c r="N2">
-        <v>0.140496</v>
+        <v>3.816495</v>
       </c>
       <c r="O2">
-        <v>0.0003849626639153301</v>
+        <v>0.005753771215083246</v>
       </c>
       <c r="P2">
-        <v>0.0003853316059783238</v>
+        <v>0.005767480278637137</v>
       </c>
       <c r="Q2">
-        <v>1.891479180581334</v>
+        <v>45.968546231655</v>
       </c>
       <c r="R2">
-        <v>17.023312625232</v>
+        <v>413.716916084895</v>
       </c>
       <c r="S2">
-        <v>0.0001510129608440728</v>
+        <v>0.003827939231889467</v>
       </c>
       <c r="T2">
-        <v>0.0001810474227812858</v>
+        <v>0.004014247723791967</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.38860566666667</v>
+        <v>36.134107</v>
       </c>
       <c r="H3">
-        <v>121.165817</v>
+        <v>108.402321</v>
       </c>
       <c r="I3">
-        <v>0.3922794987653324</v>
+        <v>0.6652922211878534</v>
       </c>
       <c r="J3">
-        <v>0.4698483591077923</v>
+        <v>0.6960141222607766</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.164342</v>
       </c>
       <c r="O3">
-        <v>0.0004503013189925206</v>
+        <v>0.0002477630048065596</v>
       </c>
       <c r="P3">
-        <v>0.0004507328805780213</v>
+        <v>0.0002483533304646762</v>
       </c>
       <c r="Q3">
-        <v>2.212514744157112</v>
+        <v>1.979450470864667</v>
       </c>
       <c r="R3">
-        <v>19.912632697414</v>
+        <v>17.815054237782</v>
       </c>
       <c r="S3">
-        <v>0.000176643975707754</v>
+        <v>0.0001648347997959328</v>
       </c>
       <c r="T3">
-        <v>0.0002117761043355118</v>
+        <v>0.0001728574253139122</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.38860566666667</v>
+        <v>36.134107</v>
       </c>
       <c r="H4">
-        <v>121.165817</v>
+        <v>108.402321</v>
       </c>
       <c r="I4">
-        <v>0.3922794987653324</v>
+        <v>0.6652922211878534</v>
       </c>
       <c r="J4">
-        <v>0.4698483591077923</v>
+        <v>0.6960141222607766</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>67.84540033333333</v>
+        <v>70.13396733333333</v>
       </c>
       <c r="N4">
-        <v>203.536201</v>
+        <v>210.401902</v>
       </c>
       <c r="O4">
-        <v>0.5576944406970025</v>
+        <v>0.3172031949017007</v>
       </c>
       <c r="P4">
-        <v>0.5582289261335334</v>
+        <v>0.3179589703046234</v>
       </c>
       <c r="Q4">
-        <v>2740.181120360136</v>
+        <v>2534.228279957171</v>
       </c>
       <c r="R4">
-        <v>24661.63008324122</v>
+        <v>22808.05451961454</v>
       </c>
       <c r="S4">
-        <v>0.2187720956608325</v>
+        <v>0.211032818104036</v>
       </c>
       <c r="T4">
-        <v>0.2622829449503457</v>
+        <v>0.2213039336315128</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.38860566666667</v>
+        <v>36.134107</v>
       </c>
       <c r="H5">
-        <v>121.165817</v>
+        <v>108.402321</v>
       </c>
       <c r="I5">
-        <v>0.3922794987653324</v>
+        <v>0.6652922211878534</v>
       </c>
       <c r="J5">
-        <v>0.4698483591077923</v>
+        <v>0.6960141222607766</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.349437</v>
+        <v>1.5766445</v>
       </c>
       <c r="N5">
-        <v>0.698874</v>
+        <v>3.153289</v>
       </c>
       <c r="O5">
-        <v>0.002872399179846711</v>
+        <v>0.007130876687001543</v>
       </c>
       <c r="P5">
-        <v>0.001916768027534556</v>
+        <v>0.00476524458183318</v>
       </c>
       <c r="Q5">
-        <v>14.113273198343</v>
+        <v>56.9706410639615</v>
       </c>
       <c r="R5">
-        <v>84.679639190058</v>
+        <v>341.823846383769</v>
       </c>
       <c r="S5">
-        <v>0.00112678331052422</v>
+        <v>0.004744116790111937</v>
       </c>
       <c r="T5">
-        <v>0.0009005903125273908</v>
+        <v>0.003316677524982542</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.38860566666667</v>
+        <v>36.134107</v>
       </c>
       <c r="H6">
-        <v>121.165817</v>
+        <v>108.402321</v>
       </c>
       <c r="I6">
-        <v>0.3922794987653324</v>
+        <v>0.6652922211878534</v>
       </c>
       <c r="J6">
-        <v>0.4698483591077923</v>
+        <v>0.6960141222607766</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.356906</v>
+        <v>148.0635173333333</v>
       </c>
       <c r="N6">
-        <v>160.070718</v>
+        <v>444.190552</v>
       </c>
       <c r="O6">
-        <v>0.438597896140243</v>
+        <v>0.669664394191408</v>
       </c>
       <c r="P6">
-        <v>0.4390182413523757</v>
+        <v>0.6712599515044415</v>
       </c>
       <c r="Q6">
-        <v>2155.011036027401</v>
+        <v>5350.142978119021</v>
       </c>
       <c r="R6">
-        <v>19395.09932424661</v>
+        <v>48151.28680307119</v>
       </c>
       <c r="S6">
-        <v>0.1720529628574238</v>
+        <v>0.4455225122620201</v>
       </c>
       <c r="T6">
-        <v>0.2062720003178024</v>
+        <v>0.4672064059551754</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>28.57052</v>
       </c>
       <c r="I7">
-        <v>0.09249827668033554</v>
+        <v>0.1753444440667649</v>
       </c>
       <c r="J7">
-        <v>0.1107887709027403</v>
+        <v>0.1834415095257413</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.04683200000000001</v>
+        <v>1.272165</v>
       </c>
       <c r="N7">
-        <v>0.140496</v>
+        <v>3.816495</v>
       </c>
       <c r="O7">
-        <v>0.0003849626639153301</v>
+        <v>0.005753771215083246</v>
       </c>
       <c r="P7">
-        <v>0.0003853316059783238</v>
+        <v>0.005767480278637137</v>
       </c>
       <c r="Q7">
-        <v>0.4460048642133335</v>
+        <v>12.1154718586</v>
       </c>
       <c r="R7">
-        <v>4.01404377792</v>
+        <v>109.0392467274</v>
       </c>
       <c r="S7">
-        <v>3.560838299843923E-05</v>
+        <v>0.001008891814996126</v>
       </c>
       <c r="T7">
-        <v>4.269041501631753E-05</v>
+        <v>0.00105799528847314</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>28.57052</v>
       </c>
       <c r="I8">
-        <v>0.09249827668033554</v>
+        <v>0.1753444440667649</v>
       </c>
       <c r="J8">
-        <v>0.1107887709027403</v>
+        <v>0.1834415095257413</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +936,22 @@
         <v>0.164342</v>
       </c>
       <c r="O8">
-        <v>0.0004503013189925206</v>
+        <v>0.0002477630048065596</v>
       </c>
       <c r="P8">
-        <v>0.0004507328805780213</v>
+        <v>0.0002483533304646762</v>
       </c>
       <c r="Q8">
-        <v>0.5217040442044446</v>
+        <v>0.5217040442044445</v>
       </c>
       <c r="R8">
-        <v>4.695336397840001</v>
+        <v>4.69533639784</v>
       </c>
       <c r="S8">
-        <v>4.16520959936902E-05</v>
+        <v>4.344386633811738E-05</v>
       </c>
       <c r="T8">
-        <v>4.993614184469063E-05</v>
+        <v>4.555830983618548E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>28.57052</v>
       </c>
       <c r="I9">
-        <v>0.09249827668033554</v>
+        <v>0.1753444440667649</v>
       </c>
       <c r="J9">
-        <v>0.1107887709027403</v>
+        <v>0.1834415095257413</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>67.84540033333333</v>
+        <v>70.13396733333333</v>
       </c>
       <c r="N9">
-        <v>203.536201</v>
+        <v>210.401902</v>
       </c>
       <c r="O9">
-        <v>0.5576944406970025</v>
+        <v>0.3172031949017007</v>
       </c>
       <c r="P9">
-        <v>0.5582289261335334</v>
+        <v>0.3179589703046234</v>
       </c>
       <c r="Q9">
-        <v>646.1261223771689</v>
+        <v>667.9213054587823</v>
       </c>
       <c r="R9">
-        <v>5815.13510139452</v>
+        <v>6011.291749129041</v>
       </c>
       <c r="S9">
-        <v>0.05158577467867632</v>
+        <v>0.05561981786624037</v>
       </c>
       <c r="T9">
-        <v>0.06184549660869079</v>
+        <v>0.05832687347993047</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>28.57052</v>
       </c>
       <c r="I10">
-        <v>0.09249827668033554</v>
+        <v>0.1753444440667649</v>
       </c>
       <c r="J10">
-        <v>0.1107887709027403</v>
+        <v>0.1834415095257413</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,28 +1054,28 @@
         <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.349437</v>
+        <v>1.5766445</v>
       </c>
       <c r="N10">
-        <v>0.698874</v>
+        <v>3.153289</v>
       </c>
       <c r="O10">
-        <v>0.002872399179846711</v>
+        <v>0.007130876687001543</v>
       </c>
       <c r="P10">
-        <v>0.001916768027534556</v>
+        <v>0.00476524458183318</v>
       </c>
       <c r="Q10">
-        <v>3.32786559908</v>
+        <v>15.01518440671333</v>
       </c>
       <c r="R10">
-        <v>19.96719359448</v>
+        <v>90.09110644028</v>
       </c>
       <c r="S10">
-        <v>0.00026569197407383</v>
+        <v>0.00125035960839094</v>
       </c>
       <c r="T10">
-        <v>0.0002123563738762235</v>
+        <v>0.0008741436593508384</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>28.57052</v>
       </c>
       <c r="I11">
-        <v>0.09249827668033554</v>
+        <v>0.1753444440667649</v>
       </c>
       <c r="J11">
-        <v>0.1107887709027403</v>
+        <v>0.1834415095257413</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>53.356906</v>
+        <v>148.0635173333333</v>
       </c>
       <c r="N11">
-        <v>160.070718</v>
+        <v>444.190552</v>
       </c>
       <c r="O11">
-        <v>0.438597896140243</v>
+        <v>0.669664394191408</v>
       </c>
       <c r="P11">
-        <v>0.4390182413523757</v>
+        <v>0.6712599515044415</v>
       </c>
       <c r="Q11">
-        <v>508.1448500037068</v>
+        <v>1410.083894414116</v>
       </c>
       <c r="R11">
-        <v>4573.30365003336</v>
+        <v>12690.75504972704</v>
       </c>
       <c r="S11">
-        <v>0.04056954954859326</v>
+        <v>0.1174219309107993</v>
       </c>
       <c r="T11">
-        <v>0.04863829136331232</v>
+        <v>0.1231369387881507</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8589773333333333</v>
+        <v>0.5104573333333333</v>
       </c>
       <c r="H12">
-        <v>2.576932</v>
+        <v>1.531372</v>
       </c>
       <c r="I12">
-        <v>0.008342927224370097</v>
+        <v>0.009398413889541031</v>
       </c>
       <c r="J12">
-        <v>0.009992647280481435</v>
+        <v>0.009832414367167749</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.04683200000000001</v>
+        <v>1.272165</v>
       </c>
       <c r="N12">
-        <v>0.140496</v>
+        <v>3.816495</v>
       </c>
       <c r="O12">
-        <v>0.0003849626639153301</v>
+        <v>0.005753771215083246</v>
       </c>
       <c r="P12">
-        <v>0.0003853316059783238</v>
+        <v>0.005767480278637137</v>
       </c>
       <c r="Q12">
-        <v>0.04022762647466667</v>
+        <v>0.6493859534599999</v>
       </c>
       <c r="R12">
-        <v>0.362048638272</v>
+        <v>5.844473581139999</v>
       </c>
       <c r="S12">
-        <v>3.211715489145243E-06</v>
+        <v>5.407632330507975E-05</v>
       </c>
       <c r="T12">
-        <v>3.850482824562841E-06</v>
+        <v>5.670825595402844E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8589773333333333</v>
+        <v>0.5104573333333333</v>
       </c>
       <c r="H13">
-        <v>2.576932</v>
+        <v>1.531372</v>
       </c>
       <c r="I13">
-        <v>0.008342927224370097</v>
+        <v>0.009398413889541031</v>
       </c>
       <c r="J13">
-        <v>0.009992647280481435</v>
+        <v>0.009832414367167749</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.164342</v>
       </c>
       <c r="O13">
-        <v>0.0004503013189925206</v>
+        <v>0.0002477630048065596</v>
       </c>
       <c r="P13">
-        <v>0.0004507328805780213</v>
+        <v>0.0002483533304646762</v>
       </c>
       <c r="Q13">
-        <v>0.04705535097155555</v>
+        <v>0.02796319302488889</v>
       </c>
       <c r="R13">
-        <v>0.423498158744</v>
+        <v>0.251668737224</v>
       </c>
       <c r="S13">
-        <v>3.756831133392464E-06</v>
+        <v>2.328579265688391E-06</v>
       </c>
       <c r="T13">
-        <v>4.504014693331528E-06</v>
+        <v>2.441912854594842E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8589773333333333</v>
+        <v>0.5104573333333333</v>
       </c>
       <c r="H14">
-        <v>2.576932</v>
+        <v>1.531372</v>
       </c>
       <c r="I14">
-        <v>0.008342927224370097</v>
+        <v>0.009398413889541031</v>
       </c>
       <c r="J14">
-        <v>0.009992647280481435</v>
+        <v>0.009832414367167749</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>67.84540033333333</v>
+        <v>70.13396733333333</v>
       </c>
       <c r="N14">
-        <v>203.536201</v>
+        <v>210.401902</v>
       </c>
       <c r="O14">
-        <v>0.5576944406970025</v>
+        <v>0.3172031949017007</v>
       </c>
       <c r="P14">
-        <v>0.5582289261335334</v>
+        <v>0.3179589703046234</v>
       </c>
       <c r="Q14">
-        <v>58.2776610572591</v>
+        <v>35.80039794106044</v>
       </c>
       <c r="R14">
-        <v>524.498949515332</v>
+        <v>322.203581469544</v>
       </c>
       <c r="S14">
-        <v>0.004652804132170877</v>
+        <v>0.002981206912770934</v>
       </c>
       <c r="T14">
-        <v>0.005578184760614324</v>
+        <v>0.003126304347793043</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8589773333333333</v>
+        <v>0.5104573333333333</v>
       </c>
       <c r="H15">
-        <v>2.576932</v>
+        <v>1.531372</v>
       </c>
       <c r="I15">
-        <v>0.008342927224370097</v>
+        <v>0.009398413889541031</v>
       </c>
       <c r="J15">
-        <v>0.009992647280481435</v>
+        <v>0.009832414367167749</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1364,28 +1364,28 @@
         <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.349437</v>
+        <v>1.5766445</v>
       </c>
       <c r="N15">
-        <v>0.698874</v>
+        <v>3.153289</v>
       </c>
       <c r="O15">
-        <v>0.002872399179846711</v>
+        <v>0.007130876687001543</v>
       </c>
       <c r="P15">
-        <v>0.001916768027534556</v>
+        <v>0.00476524458183318</v>
       </c>
       <c r="Q15">
-        <v>0.300158462428</v>
+        <v>0.8048097470846667</v>
       </c>
       <c r="R15">
-        <v>1.800950774568</v>
+        <v>4.828858482508</v>
       </c>
       <c r="S15">
-        <v>2.396421731680147E-05</v>
+        <v>6.701893049971964E-05</v>
       </c>
       <c r="T15">
-        <v>1.915358681765695E-05</v>
+        <v>4.685385928948483E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8589773333333333</v>
+        <v>0.5104573333333333</v>
       </c>
       <c r="H16">
-        <v>2.576932</v>
+        <v>1.531372</v>
       </c>
       <c r="I16">
-        <v>0.008342927224370097</v>
+        <v>0.009398413889541031</v>
       </c>
       <c r="J16">
-        <v>0.009992647280481435</v>
+        <v>0.009832414367167749</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>53.356906</v>
+        <v>148.0635173333333</v>
       </c>
       <c r="N16">
-        <v>160.070718</v>
+        <v>444.190552</v>
       </c>
       <c r="O16">
-        <v>0.438597896140243</v>
+        <v>0.669664394191408</v>
       </c>
       <c r="P16">
-        <v>0.4390182413523757</v>
+        <v>0.6712599515044415</v>
       </c>
       <c r="Q16">
-        <v>45.83237283079733</v>
+        <v>75.58010822192711</v>
       </c>
       <c r="R16">
-        <v>412.4913554771759</v>
+        <v>680.2209739973439</v>
       </c>
       <c r="S16">
-        <v>0.003659190328259882</v>
+        <v>0.006293783143699608</v>
       </c>
       <c r="T16">
-        <v>0.00438695443553156</v>
+        <v>0.006600105991276597</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>50.993427</v>
+        <v>7.192107500000001</v>
       </c>
       <c r="H17">
-        <v>101.986854</v>
+        <v>14.384215</v>
       </c>
       <c r="I17">
-        <v>0.4952801824598738</v>
+        <v>0.1324193005156269</v>
       </c>
       <c r="J17">
-        <v>0.3954775132863255</v>
+        <v>0.09235611087732429</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.04683200000000001</v>
+        <v>1.272165</v>
       </c>
       <c r="N17">
-        <v>0.140496</v>
+        <v>3.816495</v>
       </c>
       <c r="O17">
-        <v>0.0003849626639153301</v>
+        <v>0.005753771215083246</v>
       </c>
       <c r="P17">
-        <v>0.0003853316059783238</v>
+        <v>0.005767480278637137</v>
       </c>
       <c r="Q17">
-        <v>2.388124173264</v>
+        <v>9.149547437737501</v>
       </c>
       <c r="R17">
-        <v>14.328745039584</v>
+        <v>54.897284626425</v>
       </c>
       <c r="S17">
-        <v>0.0001906643784242238</v>
+        <v>0.0007619103596282723</v>
       </c>
       <c r="T17">
-        <v>0.0001523899853229337</v>
+        <v>0.0005326620480965926</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>50.993427</v>
+        <v>7.192107500000001</v>
       </c>
       <c r="H18">
-        <v>101.986854</v>
+        <v>14.384215</v>
       </c>
       <c r="I18">
-        <v>0.4952801824598738</v>
+        <v>0.1324193005156269</v>
       </c>
       <c r="J18">
-        <v>0.3954775132863255</v>
+        <v>0.09235611087732429</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.164342</v>
       </c>
       <c r="O18">
-        <v>0.0004503013189925206</v>
+        <v>0.0002477630048065596</v>
       </c>
       <c r="P18">
-        <v>0.0004507328805780213</v>
+        <v>0.0002483533304646762</v>
       </c>
       <c r="Q18">
-        <v>2.793453926678</v>
+        <v>0.3939884435883333</v>
       </c>
       <c r="R18">
-        <v>16.760723560068</v>
+        <v>2.36393066153</v>
       </c>
       <c r="S18">
-        <v>0.0002230253194325375</v>
+        <v>3.280860379013454E-05</v>
       </c>
       <c r="T18">
-        <v>0.0001782547187673782</v>
+        <v>2.293694772514839E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>50.993427</v>
+        <v>7.192107500000001</v>
       </c>
       <c r="H19">
-        <v>101.986854</v>
+        <v>14.384215</v>
       </c>
       <c r="I19">
-        <v>0.4952801824598738</v>
+        <v>0.1324193005156269</v>
       </c>
       <c r="J19">
-        <v>0.3954775132863255</v>
+        <v>0.09235611087732429</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>67.84540033333333</v>
+        <v>70.13396733333333</v>
       </c>
       <c r="N19">
-        <v>203.536201</v>
+        <v>210.401902</v>
       </c>
       <c r="O19">
-        <v>0.5576944406970025</v>
+        <v>0.3172031949017007</v>
       </c>
       <c r="P19">
-        <v>0.5582289261335334</v>
+        <v>0.3179589703046234</v>
       </c>
       <c r="Q19">
-        <v>3459.669469183609</v>
+        <v>504.4110324628217</v>
       </c>
       <c r="R19">
-        <v>20758.01681510166</v>
+        <v>3026.46619477693</v>
       </c>
       <c r="S19">
-        <v>0.2762150043452687</v>
+        <v>0.04200382519020529</v>
       </c>
       <c r="T19">
-        <v>0.2207669875517856</v>
+        <v>0.02936545391589366</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>50.993427</v>
+        <v>7.192107500000001</v>
       </c>
       <c r="H20">
-        <v>101.986854</v>
+        <v>14.384215</v>
       </c>
       <c r="I20">
-        <v>0.4952801824598738</v>
+        <v>0.1324193005156269</v>
       </c>
       <c r="J20">
-        <v>0.3954775132863255</v>
+        <v>0.09235611087732429</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1674,28 +1674,28 @@
         <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.349437</v>
+        <v>1.5766445</v>
       </c>
       <c r="N20">
-        <v>0.698874</v>
+        <v>3.153289</v>
       </c>
       <c r="O20">
-        <v>0.002872399179846711</v>
+        <v>0.007130876687001543</v>
       </c>
       <c r="P20">
-        <v>0.001916768027534556</v>
+        <v>0.00476524458183318</v>
       </c>
       <c r="Q20">
-        <v>17.818990150599</v>
+        <v>11.33939673328375</v>
       </c>
       <c r="R20">
-        <v>71.275960602396</v>
+        <v>45.357586933135</v>
       </c>
       <c r="S20">
-        <v>0.001422642389892071</v>
+        <v>0.0009442657029559356</v>
       </c>
       <c r="T20">
-        <v>0.0007580386530761014</v>
+        <v>0.000440099456957354</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>50.993427</v>
+        <v>7.192107500000001</v>
       </c>
       <c r="H21">
-        <v>101.986854</v>
+        <v>14.384215</v>
       </c>
       <c r="I21">
-        <v>0.4952801824598738</v>
+        <v>0.1324193005156269</v>
       </c>
       <c r="J21">
-        <v>0.3954775132863255</v>
+        <v>0.09235611087732429</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>53.356906</v>
+        <v>148.0635173333333</v>
       </c>
       <c r="N21">
-        <v>160.070718</v>
+        <v>444.190552</v>
       </c>
       <c r="O21">
-        <v>0.438597896140243</v>
+        <v>0.669664394191408</v>
       </c>
       <c r="P21">
-        <v>0.4390182413523757</v>
+        <v>0.6712599515044415</v>
       </c>
       <c r="Q21">
-        <v>2720.851491056862</v>
+        <v>1064.888733489447</v>
       </c>
       <c r="R21">
-        <v>16325.10894634117</v>
+        <v>6389.33240093668</v>
       </c>
       <c r="S21">
-        <v>0.2172288460268563</v>
+        <v>0.08867649065904733</v>
       </c>
       <c r="T21">
-        <v>0.1736218423773734</v>
+        <v>0.06199495850865153</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1.194230333333333</v>
+        <v>0.9529576666666667</v>
       </c>
       <c r="H22">
-        <v>3.582691</v>
+        <v>2.858873</v>
       </c>
       <c r="I22">
-        <v>0.01159911487008805</v>
+        <v>0.01754562034021376</v>
       </c>
       <c r="J22">
-        <v>0.01389270942266048</v>
+        <v>0.01835584296898988</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.04683200000000001</v>
+        <v>1.272165</v>
       </c>
       <c r="N22">
-        <v>0.140496</v>
+        <v>3.816495</v>
       </c>
       <c r="O22">
-        <v>0.0003849626639153301</v>
+        <v>0.005753771215083246</v>
       </c>
       <c r="P22">
-        <v>0.0003853316059783238</v>
+        <v>0.005767480278637137</v>
       </c>
       <c r="Q22">
-        <v>0.05592819497066667</v>
+        <v>1.212319390015</v>
       </c>
       <c r="R22">
-        <v>0.503353754736</v>
+        <v>10.910874510135</v>
       </c>
       <c r="S22">
-        <v>4.465226159449013E-06</v>
+        <v>0.0001009534852643011</v>
       </c>
       <c r="T22">
-        <v>5.353300033223953E-06</v>
+        <v>0.0001058669623214093</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1.194230333333333</v>
+        <v>0.9529576666666667</v>
       </c>
       <c r="H23">
-        <v>3.582691</v>
+        <v>2.858873</v>
       </c>
       <c r="I23">
-        <v>0.01159911487008805</v>
+        <v>0.01754562034021376</v>
       </c>
       <c r="J23">
-        <v>0.01389270942266048</v>
+        <v>0.01835584296898988</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>0.164342</v>
       </c>
       <c r="O23">
-        <v>0.0004503013189925206</v>
+        <v>0.0002477630048065596</v>
       </c>
       <c r="P23">
-        <v>0.0004507328805780213</v>
+        <v>0.0002483533304646762</v>
       </c>
       <c r="Q23">
-        <v>0.06542073381355556</v>
+        <v>0.05220365628511111</v>
       </c>
       <c r="R23">
-        <v>0.588786604322</v>
+        <v>0.469832906566</v>
       </c>
       <c r="S23">
-        <v>5.223096725146407E-06</v>
+        <v>4.347155616686454E-06</v>
       </c>
       <c r="T23">
-        <v>6.261900937109177E-06</v>
+        <v>4.558734734835245E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1.194230333333333</v>
+        <v>0.9529576666666667</v>
       </c>
       <c r="H24">
-        <v>3.582691</v>
+        <v>2.858873</v>
       </c>
       <c r="I24">
-        <v>0.01159911487008805</v>
+        <v>0.01754562034021376</v>
       </c>
       <c r="J24">
-        <v>0.01389270942266048</v>
+        <v>0.01835584296898988</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>67.84540033333333</v>
+        <v>70.13396733333333</v>
       </c>
       <c r="N24">
-        <v>203.536201</v>
+        <v>210.401902</v>
       </c>
       <c r="O24">
-        <v>0.5576944406970025</v>
+        <v>0.3172031949017007</v>
       </c>
       <c r="P24">
-        <v>0.5582289261335334</v>
+        <v>0.3179589703046234</v>
       </c>
       <c r="Q24">
-        <v>81.0230350552101</v>
+        <v>66.83470186404955</v>
       </c>
       <c r="R24">
-        <v>729.2073154968909</v>
+        <v>601.512316776446</v>
       </c>
       <c r="S24">
-        <v>0.006468761880054038</v>
+        <v>0.005565526828448071</v>
       </c>
       <c r="T24">
-        <v>0.00775531226209698</v>
+        <v>0.005836404929493381</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1.194230333333333</v>
+        <v>0.9529576666666667</v>
       </c>
       <c r="H25">
-        <v>3.582691</v>
+        <v>2.858873</v>
       </c>
       <c r="I25">
-        <v>0.01159911487008805</v>
+        <v>0.01754562034021376</v>
       </c>
       <c r="J25">
-        <v>0.01389270942266048</v>
+        <v>0.01835584296898988</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1984,28 +1984,28 @@
         <v>0.5</v>
       </c>
       <c r="M25">
-        <v>0.349437</v>
+        <v>1.5766445</v>
       </c>
       <c r="N25">
-        <v>0.698874</v>
+        <v>3.153289</v>
       </c>
       <c r="O25">
-        <v>0.002872399179846711</v>
+        <v>0.007130876687001543</v>
       </c>
       <c r="P25">
-        <v>0.001916768027534556</v>
+        <v>0.00476524458183318</v>
       </c>
       <c r="Q25">
-        <v>0.417308264989</v>
+        <v>1.502475463882833</v>
       </c>
       <c r="R25">
-        <v>2.503849589934</v>
+        <v>9.014852783297</v>
       </c>
       <c r="S25">
-        <v>3.33172880397887E-05</v>
+        <v>0.0001251156550430104</v>
       </c>
       <c r="T25">
-        <v>2.662910123718367E-05</v>
+        <v>8.747008125295967E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1.194230333333333</v>
+        <v>0.9529576666666667</v>
       </c>
       <c r="H26">
-        <v>3.582691</v>
+        <v>2.858873</v>
       </c>
       <c r="I26">
-        <v>0.01159911487008805</v>
+        <v>0.01754562034021376</v>
       </c>
       <c r="J26">
-        <v>0.01389270942266048</v>
+        <v>0.01835584296898988</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>53.356906</v>
+        <v>148.0635173333333</v>
       </c>
       <c r="N26">
-        <v>160.070718</v>
+        <v>444.190552</v>
       </c>
       <c r="O26">
-        <v>0.438597896140243</v>
+        <v>0.669664394191408</v>
       </c>
       <c r="P26">
-        <v>0.4390182413523757</v>
+        <v>0.6712599515044415</v>
       </c>
       <c r="Q26">
-        <v>63.72043563801533</v>
+        <v>141.0982639964329</v>
       </c>
       <c r="R26">
-        <v>573.4839207421379</v>
+        <v>1269.884375967896</v>
       </c>
       <c r="S26">
-        <v>0.005087347379109626</v>
+        <v>0.0117496772158417</v>
       </c>
       <c r="T26">
-        <v>0.006099152858355983</v>
+        <v>0.01232154226118729</v>
       </c>
     </row>
   </sheetData>
